--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_7_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_7_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>270323.7904265767</v>
+        <v>269795.9844556229</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5361938.291797788</v>
+        <v>5361938.291797784</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4117003.522021106</v>
+        <v>4117003.522021105</v>
       </c>
     </row>
     <row r="11">
@@ -2078,73 +2078,73 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="T20" t="n">
+        <v>43.5849887301065</v>
+      </c>
+      <c r="U20" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="G20" t="n">
-        <v>43.5849887301065</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,76 +2157,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>43.5849887301065</v>
       </c>
       <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="W21" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>43.5849887301065</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="Y21" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2254,49 +2254,49 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="T22" t="n">
-        <v>22.45388007933153</v>
+        <v>22.45388007933152</v>
       </c>
       <c r="U22" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,76 +2315,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="C23" t="n">
+      <c r="I23" t="n">
+        <v>43.5849887301065</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="D23" t="n">
-        <v>43.5849887301065</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="Y23" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>43.5849887301065</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2448,22 +2448,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
       <c r="V24" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>43.5849887301065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2482,22 +2482,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>22.45388007933152</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>22.45388007933153</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,55 +2570,55 @@
         <v>49.4834113647894</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>43.5849887301065</v>
       </c>
-      <c r="I26" t="n">
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>43.5849887301065</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2685,16 +2685,16 @@
         <v>49.4834113647894</v>
       </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>43.5849887301065</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>22.45388007933152</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>49.4834113647894</v>
       </c>
       <c r="S28" t="n">
-        <v>22.45388007933153</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,13 +2770,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="W28" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
         <v>43.5849887301065</v>
-      </c>
-      <c r="T29" t="n">
-        <v>49.4834113647894</v>
       </c>
       <c r="U29" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="V29" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>49.4834113647894</v>
+        <v>43.5849887301065</v>
       </c>
       <c r="X30" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="Y30" t="n">
-        <v>43.5849887301065</v>
+        <v>49.4834113647894</v>
       </c>
     </row>
     <row r="31">
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2968,13 +2968,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2992,17 +2992,17 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.45388007933153</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>7.521629433619523</v>
+      </c>
+      <c r="T31" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>49.4834113647894</v>
@@ -3047,7 +3047,7 @@
         <v>49.4834113647894</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
         <v>43.5849887301065</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3105,70 +3105,70 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="C33" t="n">
+      <c r="U33" t="n">
         <v>43.5849887301065</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>22.45388007933152</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>22.45388007933153</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,58 +3278,58 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="H35" t="n">
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>43.5849887301065</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>49.4834113647894</v>
@@ -3342,76 +3342,76 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>43.5849887301065</v>
+      </c>
+      <c r="S36" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="C36" t="n">
+      <c r="T36" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="W36" t="n">
-        <v>43.5849887301065</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>22.45388007933153</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3466,25 +3466,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.45388007933153</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="S37" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="T37" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,13 +3503,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>43.5849887301065</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>43.5849887301065</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="U39" t="n">
         <v>49.4834113647894</v>
@@ -3642,10 +3642,10 @@
         <v>49.4834113647894</v>
       </c>
       <c r="W39" t="n">
-        <v>49.4834113647894</v>
+        <v>43.5849887301065</v>
       </c>
       <c r="X39" t="n">
-        <v>43.5849887301065</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3670,20 +3670,20 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>49.4834113647894</v>
+      </c>
+      <c r="J40" t="n">
         <v>22.45388007933152</v>
       </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
@@ -3703,19 +3703,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>43.5849887301065</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.4834113647894</v>
+        <v>43.5849887301065</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3873,13 +3873,13 @@
         <v>49.4834113647894</v>
       </c>
       <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="V42" t="n">
-        <v>43.5849887301065</v>
-      </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>22.45388007933152</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="S43" t="n">
-        <v>22.45388007933153</v>
-      </c>
-      <c r="T43" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>49.4834113647894</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.96715785352245</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="C20" t="n">
-        <v>97.96715785352245</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="D20" t="n">
-        <v>97.96715785352245</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="E20" t="n">
-        <v>97.96715785352245</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="F20" t="n">
-        <v>47.98391405070487</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="G20" t="n">
         <v>3.958672909183152</v>
@@ -5756,16 +5756,16 @@
         <v>3.958672909183152</v>
       </c>
       <c r="L20" t="n">
-        <v>3.958672909183152</v>
+        <v>50.96791370573308</v>
       </c>
       <c r="M20" t="n">
-        <v>52.94725016032466</v>
+        <v>99.95649095687459</v>
       </c>
       <c r="N20" t="n">
-        <v>99.95649095687459</v>
+        <v>148.9450682080161</v>
       </c>
       <c r="O20" t="n">
-        <v>148.9450682080161</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="P20" t="n">
         <v>197.9336454591576</v>
@@ -5774,28 +5774,28 @@
         <v>197.9336454591576</v>
       </c>
       <c r="R20" t="n">
-        <v>147.95040165634</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="S20" t="n">
         <v>147.95040165634</v>
       </c>
       <c r="T20" t="n">
-        <v>147.95040165634</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="U20" t="n">
-        <v>147.95040165634</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="V20" t="n">
-        <v>147.95040165634</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="W20" t="n">
-        <v>147.95040165634</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="X20" t="n">
-        <v>147.95040165634</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="Y20" t="n">
-        <v>147.95040165634</v>
+        <v>3.958672909183152</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>147.95040165634</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="C21" t="n">
-        <v>97.96715785352245</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="D21" t="n">
-        <v>97.96715785352245</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="E21" t="n">
-        <v>97.96715785352245</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="F21" t="n">
-        <v>97.96715785352245</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="G21" t="n">
-        <v>47.98391405070487</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="H21" t="n">
-        <v>47.98391405070487</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="I21" t="n">
         <v>3.958672909183152</v>
@@ -5832,19 +5832,19 @@
         <v>10.26529322618006</v>
       </c>
       <c r="K21" t="n">
+        <v>10.26529322618006</v>
+      </c>
+      <c r="L21" t="n">
+        <v>10.26529322618006</v>
+      </c>
+      <c r="M21" t="n">
         <v>59.25387047732157</v>
-      </c>
-      <c r="L21" t="n">
-        <v>59.25387047732157</v>
-      </c>
-      <c r="M21" t="n">
-        <v>108.2424477284631</v>
       </c>
       <c r="N21" t="n">
         <v>108.2424477284631</v>
       </c>
       <c r="O21" t="n">
-        <v>148.9450682080161</v>
+        <v>157.2310249796046</v>
       </c>
       <c r="P21" t="n">
         <v>197.9336454591576</v>
@@ -5865,16 +5865,16 @@
         <v>197.9336454591576</v>
       </c>
       <c r="V21" t="n">
-        <v>197.9336454591576</v>
+        <v>147.95040165634</v>
       </c>
       <c r="W21" t="n">
-        <v>197.9336454591576</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="X21" t="n">
-        <v>197.9336454591576</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="Y21" t="n">
-        <v>147.95040165634</v>
+        <v>47.98391405070487</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="H22" t="n">
         <v>3.958672909183152</v>
@@ -5929,31 +5929,31 @@
         <v>176.5890912664556</v>
       </c>
       <c r="Q22" t="n">
-        <v>176.5890912664556</v>
+        <v>126.605847463638</v>
       </c>
       <c r="R22" t="n">
-        <v>176.5890912664556</v>
+        <v>76.62260366082046</v>
       </c>
       <c r="S22" t="n">
-        <v>176.5890912664556</v>
+        <v>26.63935985800288</v>
       </c>
       <c r="T22" t="n">
-        <v>153.9084043176359</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="U22" t="n">
-        <v>103.9251605148183</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="V22" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>97.96715785352245</v>
       </c>
       <c r="C23" t="n">
+        <v>97.96715785352245</v>
+      </c>
+      <c r="D23" t="n">
+        <v>97.96715785352245</v>
+      </c>
+      <c r="E23" t="n">
+        <v>97.96715785352245</v>
+      </c>
+      <c r="F23" t="n">
+        <v>97.96715785352245</v>
+      </c>
+      <c r="G23" t="n">
+        <v>97.96715785352245</v>
+      </c>
+      <c r="H23" t="n">
         <v>47.98391405070487</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3.958672909183152</v>
-      </c>
-      <c r="E23" t="n">
-        <v>3.958672909183152</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3.958672909183152</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3.958672909183152</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3.958672909183152</v>
       </c>
       <c r="I23" t="n">
         <v>3.958672909183152</v>
@@ -5993,19 +5993,19 @@
         <v>3.958672909183152</v>
       </c>
       <c r="L23" t="n">
+        <v>3.958672909183152</v>
+      </c>
+      <c r="M23" t="n">
         <v>52.94725016032466</v>
       </c>
-      <c r="M23" t="n">
-        <v>101.9358274114662</v>
-      </c>
       <c r="N23" t="n">
-        <v>150.9244046626077</v>
+        <v>99.95649095687459</v>
       </c>
       <c r="O23" t="n">
-        <v>192.772847141667</v>
+        <v>148.9450682080161</v>
       </c>
       <c r="P23" t="n">
-        <v>192.772847141667</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="Q23" t="n">
         <v>197.9336454591576</v>
@@ -6026,13 +6026,13 @@
         <v>197.9336454591576</v>
       </c>
       <c r="W23" t="n">
-        <v>197.9336454591576</v>
+        <v>147.95040165634</v>
       </c>
       <c r="X23" t="n">
-        <v>197.9336454591576</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="Y23" t="n">
-        <v>147.95040165634</v>
+        <v>97.96715785352245</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.958672909183152</v>
+        <v>147.95040165634</v>
       </c>
       <c r="C24" t="n">
-        <v>3.958672909183152</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="D24" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="E24" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="F24" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="G24" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="H24" t="n">
         <v>3.958672909183152</v>
@@ -6066,25 +6066,25 @@
         <v>3.958672909183152</v>
       </c>
       <c r="J24" t="n">
-        <v>10.26529322618006</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="K24" t="n">
-        <v>10.26529322618006</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="L24" t="n">
-        <v>10.26529322618006</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="M24" t="n">
-        <v>59.25387047732157</v>
+        <v>101.9358274114662</v>
       </c>
       <c r="N24" t="n">
-        <v>99.95649095687459</v>
+        <v>150.9244046626077</v>
       </c>
       <c r="O24" t="n">
-        <v>148.9450682080161</v>
+        <v>150.9244046626077</v>
       </c>
       <c r="P24" t="n">
-        <v>148.9450682080161</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="Q24" t="n">
         <v>197.9336454591576</v>
@@ -6096,22 +6096,22 @@
         <v>197.9336454591576</v>
       </c>
       <c r="T24" t="n">
-        <v>147.95040165634</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="U24" t="n">
         <v>147.95040165634</v>
       </c>
       <c r="V24" t="n">
-        <v>97.96715785352245</v>
+        <v>147.95040165634</v>
       </c>
       <c r="W24" t="n">
-        <v>47.98391405070487</v>
+        <v>147.95040165634</v>
       </c>
       <c r="X24" t="n">
-        <v>47.98391405070487</v>
+        <v>147.95040165634</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.958672909183152</v>
+        <v>147.95040165634</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94191671200073</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94191671200073</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94191671200073</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94191671200073</v>
+        <v>147.95040165634</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94191671200073</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94191671200073</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94191671200073</v>
+        <v>25.30322710188515</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94191671200073</v>
+        <v>25.30322710188515</v>
       </c>
       <c r="J25" t="n">
-        <v>3.958672909183152</v>
+        <v>25.30322710188515</v>
       </c>
       <c r="K25" t="n">
-        <v>3.958672909183152</v>
+        <v>25.30322710188515</v>
       </c>
       <c r="L25" t="n">
-        <v>40.56804907792186</v>
+        <v>61.91260327062386</v>
       </c>
       <c r="M25" t="n">
-        <v>89.55662632906336</v>
+        <v>110.9011805217654</v>
       </c>
       <c r="N25" t="n">
-        <v>138.5452035802049</v>
+        <v>159.8897577729069</v>
       </c>
       <c r="O25" t="n">
-        <v>171.721618838782</v>
+        <v>193.066173031484</v>
       </c>
       <c r="P25" t="n">
-        <v>176.5890912664556</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="Q25" t="n">
-        <v>126.605847463638</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="R25" t="n">
-        <v>76.62260366082046</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="S25" t="n">
-        <v>53.94191671200073</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="T25" t="n">
-        <v>53.94191671200073</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="U25" t="n">
-        <v>53.94191671200073</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="V25" t="n">
-        <v>53.94191671200073</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94191671200073</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94191671200073</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94191671200073</v>
+        <v>197.9336454591576</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>197.9336454591576</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="C26" t="n">
-        <v>197.9336454591576</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="D26" t="n">
-        <v>197.9336454591576</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="E26" t="n">
-        <v>147.95040165634</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="F26" t="n">
-        <v>147.95040165634</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="G26" t="n">
-        <v>97.96715785352245</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="I26" t="n">
         <v>3.958672909183152</v>
@@ -6230,19 +6230,19 @@
         <v>52.94725016032466</v>
       </c>
       <c r="L26" t="n">
-        <v>101.9358274114662</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="M26" t="n">
-        <v>148.9450682080161</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="N26" t="n">
-        <v>148.9450682080161</v>
+        <v>94.79569263938403</v>
       </c>
       <c r="O26" t="n">
-        <v>148.9450682080161</v>
+        <v>143.7842698905255</v>
       </c>
       <c r="P26" t="n">
-        <v>197.9336454591576</v>
+        <v>192.772847141667</v>
       </c>
       <c r="Q26" t="n">
         <v>197.9336454591576</v>
@@ -6257,19 +6257,19 @@
         <v>197.9336454591576</v>
       </c>
       <c r="U26" t="n">
-        <v>197.9336454591576</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="V26" t="n">
-        <v>197.9336454591576</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="W26" t="n">
-        <v>197.9336454591576</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="X26" t="n">
-        <v>197.9336454591576</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="Y26" t="n">
-        <v>197.9336454591576</v>
+        <v>53.94191671200073</v>
       </c>
     </row>
     <row r="27">
@@ -6303,13 +6303,13 @@
         <v>3.958672909183152</v>
       </c>
       <c r="J27" t="n">
-        <v>10.26529322618006</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="K27" t="n">
-        <v>10.26529322618006</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="L27" t="n">
-        <v>59.25387047732157</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="M27" t="n">
         <v>99.95649095687459</v>
@@ -6333,22 +6333,22 @@
         <v>147.95040165634</v>
       </c>
       <c r="T27" t="n">
-        <v>97.96715785352245</v>
+        <v>147.95040165634</v>
       </c>
       <c r="U27" t="n">
-        <v>97.96715785352245</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="V27" t="n">
-        <v>97.96715785352245</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="W27" t="n">
-        <v>97.96715785352245</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="X27" t="n">
-        <v>97.96715785352245</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="Y27" t="n">
-        <v>47.98391405070487</v>
+        <v>3.958672909183152</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.958672909183152</v>
+        <v>26.63935985800288</v>
       </c>
       <c r="C28" t="n">
-        <v>3.958672909183152</v>
+        <v>26.63935985800288</v>
       </c>
       <c r="D28" t="n">
         <v>3.958672909183152</v>
@@ -6409,25 +6409,25 @@
         <v>126.605847463638</v>
       </c>
       <c r="S28" t="n">
-        <v>103.9251605148183</v>
+        <v>126.605847463638</v>
       </c>
       <c r="T28" t="n">
-        <v>103.9251605148183</v>
+        <v>126.605847463638</v>
       </c>
       <c r="U28" t="n">
-        <v>103.9251605148183</v>
+        <v>126.605847463638</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94191671200073</v>
+        <v>126.605847463638</v>
       </c>
       <c r="W28" t="n">
-        <v>3.958672909183152</v>
+        <v>126.605847463638</v>
       </c>
       <c r="X28" t="n">
-        <v>3.958672909183152</v>
+        <v>76.62260366082046</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.958672909183152</v>
+        <v>76.62260366082046</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="C29" t="n">
         <v>3.958672909183152</v>
@@ -6464,22 +6464,22 @@
         <v>3.958672909183152</v>
       </c>
       <c r="K29" t="n">
+        <v>3.958672909183152</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.958672909183152</v>
+      </c>
+      <c r="M29" t="n">
         <v>52.94725016032466</v>
       </c>
-      <c r="L29" t="n">
-        <v>94.79569263938403</v>
-      </c>
-      <c r="M29" t="n">
-        <v>94.79569263938403</v>
-      </c>
       <c r="N29" t="n">
-        <v>143.7842698905255</v>
+        <v>101.9358274114662</v>
       </c>
       <c r="O29" t="n">
-        <v>192.772847141667</v>
+        <v>150.9244046626077</v>
       </c>
       <c r="P29" t="n">
-        <v>192.772847141667</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="Q29" t="n">
         <v>197.9336454591576</v>
@@ -6488,25 +6488,25 @@
         <v>197.9336454591576</v>
       </c>
       <c r="S29" t="n">
+        <v>197.9336454591576</v>
+      </c>
+      <c r="T29" t="n">
         <v>153.9084043176359</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>103.9251605148183</v>
       </c>
-      <c r="U29" t="n">
-        <v>53.94191671200073</v>
-      </c>
       <c r="V29" t="n">
-        <v>3.958672909183152</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="W29" t="n">
-        <v>3.958672909183152</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="X29" t="n">
-        <v>3.958672909183152</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="Y29" t="n">
-        <v>3.958672909183152</v>
+        <v>103.9251605148183</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>3.958672909183152</v>
       </c>
       <c r="J30" t="n">
-        <v>10.26529322618006</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="K30" t="n">
-        <v>59.25387047732157</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="L30" t="n">
-        <v>59.25387047732157</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="M30" t="n">
-        <v>59.25387047732157</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="N30" t="n">
-        <v>108.2424477284631</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="O30" t="n">
-        <v>148.9450682080161</v>
+        <v>101.9358274114662</v>
       </c>
       <c r="P30" t="n">
-        <v>148.9450682080161</v>
+        <v>150.9244046626077</v>
       </c>
       <c r="Q30" t="n">
         <v>197.9336454591576</v>
@@ -6570,19 +6570,19 @@
         <v>197.9336454591576</v>
       </c>
       <c r="T30" t="n">
-        <v>197.9336454591576</v>
+        <v>147.95040165634</v>
       </c>
       <c r="U30" t="n">
-        <v>197.9336454591576</v>
+        <v>147.95040165634</v>
       </c>
       <c r="V30" t="n">
         <v>147.95040165634</v>
       </c>
       <c r="W30" t="n">
-        <v>97.96715785352245</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="X30" t="n">
-        <v>47.98391405070487</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="Y30" t="n">
         <v>3.958672909183152</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.958672909183152</v>
+        <v>119.0082419751335</v>
       </c>
       <c r="C31" t="n">
-        <v>3.958672909183152</v>
+        <v>69.02499817231589</v>
       </c>
       <c r="D31" t="n">
-        <v>3.958672909183152</v>
+        <v>69.02499817231589</v>
       </c>
       <c r="E31" t="n">
-        <v>3.958672909183152</v>
+        <v>69.02499817231589</v>
       </c>
       <c r="F31" t="n">
-        <v>3.958672909183152</v>
+        <v>69.02499817231589</v>
       </c>
       <c r="G31" t="n">
-        <v>3.958672909183152</v>
+        <v>69.02499817231589</v>
       </c>
       <c r="H31" t="n">
-        <v>3.958672909183152</v>
+        <v>69.02499817231589</v>
       </c>
       <c r="I31" t="n">
-        <v>3.958672909183152</v>
+        <v>19.04175436949831</v>
       </c>
       <c r="J31" t="n">
-        <v>3.958672909183152</v>
+        <v>19.04175436949831</v>
       </c>
       <c r="K31" t="n">
         <v>3.958672909183152</v>
@@ -6640,31 +6640,31 @@
         <v>176.5890912664556</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.9084043176359</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="R31" t="n">
-        <v>103.9251605148183</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="S31" t="n">
-        <v>103.9251605148183</v>
+        <v>168.9914857779511</v>
       </c>
       <c r="T31" t="n">
-        <v>103.9251605148183</v>
+        <v>119.0082419751335</v>
       </c>
       <c r="U31" t="n">
-        <v>103.9251605148183</v>
+        <v>119.0082419751335</v>
       </c>
       <c r="V31" t="n">
-        <v>103.9251605148183</v>
+        <v>119.0082419751335</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94191671200073</v>
+        <v>119.0082419751335</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94191671200073</v>
+        <v>119.0082419751335</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.958672909183152</v>
+        <v>119.0082419751335</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>153.9084043176359</v>
       </c>
       <c r="F32" t="n">
+        <v>153.9084043176359</v>
+      </c>
+      <c r="G32" t="n">
         <v>103.9251605148183</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>53.94191671200073</v>
-      </c>
-      <c r="H32" t="n">
-        <v>3.958672909183152</v>
       </c>
       <c r="I32" t="n">
         <v>3.958672909183152</v>
@@ -6701,31 +6701,31 @@
         <v>3.958672909183152</v>
       </c>
       <c r="K32" t="n">
-        <v>52.94725016032466</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="L32" t="n">
         <v>52.94725016032466</v>
       </c>
       <c r="M32" t="n">
-        <v>52.94725016032466</v>
+        <v>101.9358274114662</v>
       </c>
       <c r="N32" t="n">
-        <v>99.95649095687459</v>
+        <v>143.7842698905255</v>
       </c>
       <c r="O32" t="n">
-        <v>148.9450682080161</v>
+        <v>143.7842698905255</v>
       </c>
       <c r="P32" t="n">
-        <v>197.9336454591576</v>
+        <v>192.772847141667</v>
       </c>
       <c r="Q32" t="n">
         <v>197.9336454591576</v>
       </c>
       <c r="R32" t="n">
-        <v>153.9084043176359</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="S32" t="n">
-        <v>153.9084043176359</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="T32" t="n">
         <v>153.9084043176359</v>
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>47.98391405070487</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="C33" t="n">
         <v>3.958672909183152</v>
@@ -6777,22 +6777,22 @@
         <v>3.958672909183152</v>
       </c>
       <c r="J33" t="n">
-        <v>10.26529322618006</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="K33" t="n">
-        <v>59.25387047732157</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="L33" t="n">
-        <v>108.2424477284631</v>
+        <v>99.95649095687459</v>
       </c>
       <c r="M33" t="n">
-        <v>157.2310249796046</v>
+        <v>99.95649095687459</v>
       </c>
       <c r="N33" t="n">
-        <v>197.9336454591576</v>
+        <v>148.9450682080161</v>
       </c>
       <c r="O33" t="n">
-        <v>197.9336454591576</v>
+        <v>148.9450682080161</v>
       </c>
       <c r="P33" t="n">
         <v>197.9336454591576</v>
@@ -6801,28 +6801,28 @@
         <v>197.9336454591576</v>
       </c>
       <c r="R33" t="n">
-        <v>147.95040165634</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="S33" t="n">
-        <v>147.95040165634</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="T33" t="n">
         <v>147.95040165634</v>
       </c>
       <c r="U33" t="n">
-        <v>147.95040165634</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="V33" t="n">
-        <v>97.96715785352245</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="W33" t="n">
-        <v>97.96715785352245</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="X33" t="n">
-        <v>97.96715785352245</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="Y33" t="n">
-        <v>97.96715785352245</v>
+        <v>3.958672909183152</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>26.63935985800288</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="C34" t="n">
-        <v>26.63935985800288</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="D34" t="n">
-        <v>26.63935985800288</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="E34" t="n">
-        <v>26.63935985800288</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="F34" t="n">
-        <v>26.63935985800288</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="G34" t="n">
-        <v>26.63935985800288</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="H34" t="n">
         <v>3.958672909183152</v>
@@ -6880,28 +6880,28 @@
         <v>176.5890912664556</v>
       </c>
       <c r="R34" t="n">
+        <v>176.5890912664556</v>
+      </c>
+      <c r="S34" t="n">
+        <v>176.5890912664556</v>
+      </c>
+      <c r="T34" t="n">
+        <v>176.5890912664556</v>
+      </c>
+      <c r="U34" t="n">
         <v>126.605847463638</v>
       </c>
-      <c r="S34" t="n">
-        <v>126.605847463638</v>
-      </c>
-      <c r="T34" t="n">
+      <c r="V34" t="n">
         <v>76.62260366082046</v>
       </c>
-      <c r="U34" t="n">
-        <v>76.62260366082046</v>
-      </c>
-      <c r="V34" t="n">
-        <v>26.63935985800288</v>
-      </c>
       <c r="W34" t="n">
-        <v>26.63935985800288</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="X34" t="n">
-        <v>26.63935985800288</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="Y34" t="n">
-        <v>26.63935985800288</v>
+        <v>3.958672909183152</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.96715785352245</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="C35" t="n">
-        <v>97.96715785352245</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="D35" t="n">
-        <v>97.96715785352245</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="E35" t="n">
-        <v>97.96715785352245</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="F35" t="n">
-        <v>97.96715785352245</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="G35" t="n">
-        <v>47.98391405070487</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="H35" t="n">
         <v>3.958672909183152</v>
@@ -6959,7 +6959,7 @@
         <v>197.9336454591576</v>
       </c>
       <c r="R35" t="n">
-        <v>197.9336454591576</v>
+        <v>147.95040165634</v>
       </c>
       <c r="S35" t="n">
         <v>147.95040165634</v>
@@ -6977,10 +6977,10 @@
         <v>147.95040165634</v>
       </c>
       <c r="X35" t="n">
-        <v>147.95040165634</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.96715785352245</v>
+        <v>53.94191671200073</v>
       </c>
     </row>
     <row r="36">
@@ -6990,7 +6990,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="C36" t="n">
         <v>3.958672909183152</v>
@@ -7017,16 +7017,16 @@
         <v>10.26529322618006</v>
       </c>
       <c r="K36" t="n">
-        <v>59.25387047732157</v>
+        <v>10.26529322618006</v>
       </c>
       <c r="L36" t="n">
-        <v>108.2424477284631</v>
+        <v>50.96791370573308</v>
       </c>
       <c r="M36" t="n">
-        <v>157.2310249796046</v>
+        <v>99.95649095687459</v>
       </c>
       <c r="N36" t="n">
-        <v>197.9336454591576</v>
+        <v>148.9450682080161</v>
       </c>
       <c r="O36" t="n">
         <v>197.9336454591576</v>
@@ -7038,28 +7038,28 @@
         <v>197.9336454591576</v>
       </c>
       <c r="R36" t="n">
-        <v>197.9336454591576</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="S36" t="n">
-        <v>197.9336454591576</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="T36" t="n">
-        <v>197.9336454591576</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="U36" t="n">
-        <v>197.9336454591576</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="V36" t="n">
-        <v>197.9336454591576</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="W36" t="n">
-        <v>153.9084043176359</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="X36" t="n">
-        <v>153.9084043176359</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="Y36" t="n">
-        <v>103.9251605148183</v>
+        <v>3.958672909183152</v>
       </c>
     </row>
     <row r="37">
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.958672909183152</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="C37" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="D37" t="n">
         <v>3.958672909183152</v>
@@ -7114,31 +7114,31 @@
         <v>176.5890912664556</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.9084043176359</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="R37" t="n">
-        <v>103.9251605148183</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="S37" t="n">
-        <v>53.94191671200073</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="T37" t="n">
-        <v>3.958672909183152</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="U37" t="n">
-        <v>3.958672909183152</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="V37" t="n">
-        <v>3.958672909183152</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="W37" t="n">
-        <v>3.958672909183152</v>
+        <v>126.605847463638</v>
       </c>
       <c r="X37" t="n">
-        <v>3.958672909183152</v>
+        <v>126.605847463638</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.958672909183152</v>
+        <v>126.605847463638</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.958672909183152</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="C38" t="n">
-        <v>3.958672909183152</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="D38" t="n">
-        <v>3.958672909183152</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="E38" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="F38" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="G38" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="H38" t="n">
         <v>3.958672909183152</v>
@@ -7205,19 +7205,19 @@
         <v>197.9336454591576</v>
       </c>
       <c r="U38" t="n">
-        <v>153.9084043176359</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="V38" t="n">
-        <v>153.9084043176359</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="W38" t="n">
-        <v>103.9251605148183</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="X38" t="n">
-        <v>53.94191671200073</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="Y38" t="n">
-        <v>3.958672909183152</v>
+        <v>197.9336454591576</v>
       </c>
     </row>
     <row r="39">
@@ -7281,16 +7281,16 @@
         <v>197.9336454591576</v>
       </c>
       <c r="T39" t="n">
-        <v>197.9336454591576</v>
+        <v>147.95040165634</v>
       </c>
       <c r="U39" t="n">
-        <v>147.95040165634</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="V39" t="n">
-        <v>97.96715785352245</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="W39" t="n">
-        <v>47.98391405070487</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="X39" t="n">
         <v>3.958672909183152</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>76.62260366082046</v>
+      </c>
+      <c r="C40" t="n">
+        <v>76.62260366082046</v>
+      </c>
+      <c r="D40" t="n">
+        <v>76.62260366082046</v>
+      </c>
+      <c r="E40" t="n">
+        <v>76.62260366082046</v>
+      </c>
+      <c r="F40" t="n">
+        <v>76.62260366082046</v>
+      </c>
+      <c r="G40" t="n">
+        <v>76.62260366082046</v>
+      </c>
+      <c r="H40" t="n">
+        <v>76.62260366082046</v>
+      </c>
+      <c r="I40" t="n">
         <v>26.63935985800288</v>
-      </c>
-      <c r="C40" t="n">
-        <v>26.63935985800288</v>
-      </c>
-      <c r="D40" t="n">
-        <v>26.63935985800288</v>
-      </c>
-      <c r="E40" t="n">
-        <v>26.63935985800288</v>
-      </c>
-      <c r="F40" t="n">
-        <v>3.958672909183152</v>
-      </c>
-      <c r="G40" t="n">
-        <v>3.958672909183152</v>
-      </c>
-      <c r="H40" t="n">
-        <v>3.958672909183152</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3.958672909183152</v>
       </c>
       <c r="J40" t="n">
         <v>3.958672909183152</v>
@@ -7351,31 +7351,31 @@
         <v>176.5890912664556</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.605847463638</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="R40" t="n">
-        <v>126.605847463638</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="S40" t="n">
-        <v>126.605847463638</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="T40" t="n">
         <v>126.605847463638</v>
       </c>
       <c r="U40" t="n">
-        <v>126.605847463638</v>
+        <v>76.62260366082046</v>
       </c>
       <c r="V40" t="n">
-        <v>126.605847463638</v>
+        <v>76.62260366082046</v>
       </c>
       <c r="W40" t="n">
-        <v>126.605847463638</v>
+        <v>76.62260366082046</v>
       </c>
       <c r="X40" t="n">
         <v>76.62260366082046</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.63935985800288</v>
+        <v>76.62260366082046</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.96715785352245</v>
+        <v>147.95040165634</v>
       </c>
       <c r="C41" t="n">
-        <v>47.98391405070487</v>
+        <v>147.95040165634</v>
       </c>
       <c r="D41" t="n">
-        <v>3.958672909183152</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="E41" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="F41" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="G41" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="H41" t="n">
         <v>3.958672909183152</v>
@@ -7412,16 +7412,16 @@
         <v>3.958672909183152</v>
       </c>
       <c r="K41" t="n">
-        <v>3.958672909183152</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="L41" t="n">
-        <v>3.958672909183152</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="M41" t="n">
         <v>52.94725016032466</v>
       </c>
       <c r="N41" t="n">
-        <v>101.9358274114662</v>
+        <v>94.79569263938403</v>
       </c>
       <c r="O41" t="n">
         <v>143.7842698905255</v>
@@ -7488,43 +7488,43 @@
         <v>3.958672909183152</v>
       </c>
       <c r="J42" t="n">
-        <v>3.958672909183152</v>
+        <v>10.26529322618006</v>
       </c>
       <c r="K42" t="n">
-        <v>3.958672909183152</v>
+        <v>59.25387047732157</v>
       </c>
       <c r="L42" t="n">
-        <v>3.958672909183152</v>
+        <v>108.2424477284631</v>
       </c>
       <c r="M42" t="n">
-        <v>3.958672909183152</v>
+        <v>157.2310249796046</v>
       </c>
       <c r="N42" t="n">
-        <v>50.96791370573308</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="O42" t="n">
-        <v>99.95649095687459</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="P42" t="n">
-        <v>148.9450682080161</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="Q42" t="n">
         <v>197.9336454591576</v>
       </c>
       <c r="R42" t="n">
-        <v>147.95040165634</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="S42" t="n">
-        <v>147.95040165634</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="T42" t="n">
-        <v>97.96715785352245</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="U42" t="n">
-        <v>47.98391405070487</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="V42" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="W42" t="n">
         <v>3.958672909183152</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.958672909183152</v>
+        <v>26.63935985800288</v>
       </c>
       <c r="C43" t="n">
-        <v>3.958672909183152</v>
+        <v>26.63935985800288</v>
       </c>
       <c r="D43" t="n">
         <v>3.958672909183152</v>
@@ -7591,28 +7591,28 @@
         <v>176.5890912664556</v>
       </c>
       <c r="R43" t="n">
+        <v>176.5890912664556</v>
+      </c>
+      <c r="S43" t="n">
+        <v>176.5890912664556</v>
+      </c>
+      <c r="T43" t="n">
+        <v>176.5890912664556</v>
+      </c>
+      <c r="U43" t="n">
         <v>126.605847463638</v>
       </c>
-      <c r="S43" t="n">
-        <v>103.9251605148183</v>
-      </c>
-      <c r="T43" t="n">
-        <v>53.94191671200073</v>
-      </c>
-      <c r="U43" t="n">
-        <v>53.94191671200073</v>
-      </c>
       <c r="V43" t="n">
-        <v>3.958672909183152</v>
+        <v>76.62260366082046</v>
       </c>
       <c r="W43" t="n">
-        <v>3.958672909183152</v>
+        <v>76.62260366082046</v>
       </c>
       <c r="X43" t="n">
-        <v>3.958672909183152</v>
+        <v>26.63935985800288</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.958672909183152</v>
+        <v>26.63935985800288</v>
       </c>
     </row>
     <row r="44">
@@ -9404,19 +9404,19 @@
         <v>202.1809638361346</v>
       </c>
       <c r="L20" t="n">
-        <v>213.5488567752802</v>
+        <v>261.0329383879569</v>
       </c>
       <c r="M20" t="n">
         <v>255.1083302352898</v>
       </c>
       <c r="N20" t="n">
-        <v>251.7758141408643</v>
+        <v>253.775143892977</v>
       </c>
       <c r="O20" t="n">
         <v>255.860262215664</v>
       </c>
       <c r="P20" t="n">
-        <v>260.4707746859439</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q20" t="n">
         <v>207.1020630664798</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>175.1609092457896</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L21" t="n">
         <v>122.1984598562864</v>
@@ -9489,13 +9489,13 @@
         <v>172.5308581948844</v>
       </c>
       <c r="N21" t="n">
-        <v>111.7499598249992</v>
+        <v>161.2333711897886</v>
       </c>
       <c r="O21" t="n">
-        <v>165.7873767477085</v>
+        <v>174.1570300523434</v>
       </c>
       <c r="P21" t="n">
-        <v>169.073331522617</v>
+        <v>160.7036782179822</v>
       </c>
       <c r="Q21" t="n">
         <v>130.3661252938572</v>
@@ -9641,22 +9641,22 @@
         <v>202.1809638361346</v>
       </c>
       <c r="L23" t="n">
-        <v>263.0322681400696</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M23" t="n">
         <v>255.1083302352898</v>
       </c>
       <c r="N23" t="n">
-        <v>253.775143892977</v>
+        <v>251.7758141408643</v>
       </c>
       <c r="O23" t="n">
-        <v>248.6480048701264</v>
+        <v>255.860262215664</v>
       </c>
       <c r="P23" t="n">
-        <v>210.9873633211545</v>
+        <v>260.4707746859439</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K24" t="n">
         <v>125.6774978810001</v>
       </c>
       <c r="L24" t="n">
-        <v>122.1984598562864</v>
+        <v>171.6818712210759</v>
       </c>
       <c r="M24" t="n">
         <v>172.5308581948844</v>
       </c>
       <c r="N24" t="n">
-        <v>152.8637178851538</v>
+        <v>161.2333711897886</v>
       </c>
       <c r="O24" t="n">
-        <v>174.1570300523433</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P24" t="n">
-        <v>119.5899201578276</v>
+        <v>167.0740017705043</v>
       </c>
       <c r="Q24" t="n">
-        <v>179.8495366586465</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9878,22 +9878,22 @@
         <v>251.664375200924</v>
       </c>
       <c r="L26" t="n">
-        <v>263.0322681400696</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M26" t="n">
-        <v>253.1090004831771</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N26" t="n">
-        <v>204.2917325281876</v>
+        <v>246.5628865474395</v>
       </c>
       <c r="O26" t="n">
-        <v>206.3768508508745</v>
+        <v>255.860262215664</v>
       </c>
       <c r="P26" t="n">
         <v>260.4707746859439</v>
       </c>
       <c r="Q26" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K27" t="n">
         <v>125.6774978810001</v>
@@ -9960,7 +9960,7 @@
         <v>171.6818712210759</v>
       </c>
       <c r="M27" t="n">
-        <v>164.1612048902496</v>
+        <v>170.5315284427717</v>
       </c>
       <c r="N27" t="n">
         <v>161.2333711897886</v>
@@ -10112,13 +10112,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>251.664375200924</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L29" t="n">
-        <v>255.8200107945321</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M29" t="n">
-        <v>205.6249188705004</v>
+        <v>255.1083302352898</v>
       </c>
       <c r="N29" t="n">
         <v>253.775143892977</v>
@@ -10127,10 +10127,10 @@
         <v>255.860262215664</v>
       </c>
       <c r="P29" t="n">
-        <v>210.9873633211545</v>
+        <v>258.4714449338312</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K30" t="n">
         <v>175.1609092457896</v>
@@ -10200,16 +10200,16 @@
         <v>123.047446830095</v>
       </c>
       <c r="N30" t="n">
-        <v>161.2333711897886</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O30" t="n">
-        <v>165.7873767477085</v>
+        <v>174.1570300523434</v>
       </c>
       <c r="P30" t="n">
-        <v>119.5899201578276</v>
+        <v>169.073331522617</v>
       </c>
       <c r="Q30" t="n">
-        <v>179.8495366586465</v>
+        <v>177.8502069065339</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,25 +10349,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>251.664375200924</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L32" t="n">
-        <v>213.5488567752802</v>
+        <v>263.0322681400696</v>
       </c>
       <c r="M32" t="n">
-        <v>205.6249188705004</v>
+        <v>255.1083302352898</v>
       </c>
       <c r="N32" t="n">
-        <v>251.7758141408643</v>
+        <v>246.5628865474395</v>
       </c>
       <c r="O32" t="n">
-        <v>255.860262215664</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P32" t="n">
         <v>260.4707746859439</v>
       </c>
       <c r="Q32" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,25 +10425,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K33" t="n">
         <v>175.1609092457896</v>
       </c>
       <c r="L33" t="n">
-        <v>171.6818712210759</v>
+        <v>169.6825414689631</v>
       </c>
       <c r="M33" t="n">
-        <v>172.5308581948844</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N33" t="n">
-        <v>152.8637178851538</v>
+        <v>161.2333711897886</v>
       </c>
       <c r="O33" t="n">
         <v>124.673618687554</v>
       </c>
       <c r="P33" t="n">
-        <v>119.5899201578276</v>
+        <v>169.073331522617</v>
       </c>
       <c r="Q33" t="n">
         <v>130.3661252938572</v>
@@ -10665,19 +10665,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>175.1609092457896</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L36" t="n">
-        <v>171.6818712210759</v>
+        <v>163.312217916441</v>
       </c>
       <c r="M36" t="n">
         <v>172.5308581948844</v>
       </c>
       <c r="N36" t="n">
-        <v>152.8637178851538</v>
+        <v>161.2333711897886</v>
       </c>
       <c r="O36" t="n">
-        <v>124.673618687554</v>
+        <v>174.1570300523433</v>
       </c>
       <c r="P36" t="n">
         <v>119.5899201578276</v>
@@ -11060,19 +11060,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>202.1809638361346</v>
+        <v>251.664375200924</v>
       </c>
       <c r="L41" t="n">
         <v>213.5488567752802</v>
       </c>
       <c r="M41" t="n">
-        <v>255.1083302352898</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N41" t="n">
-        <v>253.775143892977</v>
+        <v>246.5628865474395</v>
       </c>
       <c r="O41" t="n">
-        <v>248.6480048701264</v>
+        <v>255.860262215664</v>
       </c>
       <c r="P41" t="n">
         <v>260.4707746859439</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>125.6774978810001</v>
+        <v>175.1609092457896</v>
       </c>
       <c r="L42" t="n">
-        <v>122.1984598562864</v>
+        <v>171.6818712210759</v>
       </c>
       <c r="M42" t="n">
-        <v>123.047446830095</v>
+        <v>172.5308581948844</v>
       </c>
       <c r="N42" t="n">
-        <v>159.2340414376759</v>
+        <v>152.8637178851538</v>
       </c>
       <c r="O42" t="n">
-        <v>174.1570300523433</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P42" t="n">
-        <v>169.073331522617</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q42" t="n">
-        <v>179.8495366586465</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>333.2504302986912</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23978,10 +23978,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>357.392634376922</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>371.576959797213</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H20" t="n">
         <v>338.0329468943008</v>
@@ -24014,16 +24014,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>91.54187032048991</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S20" t="n">
-        <v>205.8118405263978</v>
+        <v>156.3284291616084</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4795457699687</v>
+        <v>178.8945570398622</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3343897888113</v>
+        <v>201.8509784240218</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24032,7 +24032,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>320.2476893136796</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,10 +24045,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>122.9481949197609</v>
       </c>
       <c r="C21" t="n">
-        <v>123.2250876235263</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24060,13 +24060,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>87.78477704894989</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H21" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I21" t="n">
-        <v>43.2180884925809</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24105,16 +24105,16 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>183.3171757846359</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>202.2115717961302</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>156.2895738386881</v>
       </c>
       <c r="Y21" t="n">
-        <v>156.1992844125149</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24142,7 +24142,7 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H22" t="n">
-        <v>112.1822727330878</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I22" t="n">
         <v>153.551289182031</v>
@@ -24169,22 +24169,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>80.87383288310646</v>
+        <v>31.39042151831705</v>
       </c>
       <c r="R22" t="n">
-        <v>174.4537986637794</v>
+        <v>124.97038729899</v>
       </c>
       <c r="S22" t="n">
-        <v>222.9160118599466</v>
+        <v>173.4326004951572</v>
       </c>
       <c r="T22" t="n">
         <v>205.2218734057043</v>
       </c>
       <c r="U22" t="n">
-        <v>236.8321732775324</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V22" t="n">
-        <v>202.6542319590386</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>333.2504302986912</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>315.7894804062182</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>311.0980528905765</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,10 +24221,10 @@
         <v>415.1619485273195</v>
       </c>
       <c r="H23" t="n">
-        <v>338.0329468943008</v>
+        <v>288.5495355295114</v>
       </c>
       <c r="I23" t="n">
-        <v>205.0481221176458</v>
+        <v>161.4631333875393</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>299.7575573526236</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>320.2476893136796</v>
       </c>
       <c r="Y23" t="n">
-        <v>336.7545272912642</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24285,10 +24285,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>123.2250876235263</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>103.8600768345323</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24300,7 +24300,7 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H24" t="n">
-        <v>111.5079271034444</v>
+        <v>62.02451573865504</v>
       </c>
       <c r="I24" t="n">
         <v>86.80307722268739</v>
@@ -24336,22 +24336,22 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T24" t="n">
-        <v>150.3776896073824</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9364262421938</v>
+        <v>176.4530148774044</v>
       </c>
       <c r="V24" t="n">
-        <v>183.3171757846359</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>202.2115717961302</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>162.0977070471979</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24370,22 +24370,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>96.95055128177977</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>95.93763665814184</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9278262653587</v>
+        <v>118.4444149005693</v>
       </c>
       <c r="H25" t="n">
-        <v>161.6656840978772</v>
+        <v>139.2118040185457</v>
       </c>
       <c r="I25" t="n">
         <v>153.551289182031</v>
       </c>
       <c r="J25" t="n">
-        <v>39.41084506970898</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K25" t="n">
         <v>14.93225064571201</v>
@@ -24406,13 +24406,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.39042151831705</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R25" t="n">
-        <v>124.97038729899</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S25" t="n">
-        <v>200.4621317806151</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T25" t="n">
         <v>227.6757534850358</v>
@@ -24449,7 +24449,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>332.4469587074724</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,10 +24458,10 @@
         <v>365.6785371625301</v>
       </c>
       <c r="H26" t="n">
-        <v>294.4479581641943</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I26" t="n">
-        <v>155.5647107528564</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,16 +24497,16 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3343897888113</v>
+        <v>207.7494010587048</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>299.7575573526236</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>320.2476893136796</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>122.9481949197609</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24573,16 +24573,16 @@
         <v>120.8005612565437</v>
       </c>
       <c r="T27" t="n">
-        <v>150.3776896073824</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9364262421938</v>
+        <v>182.3514375120873</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>202.2115717961302</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>130.3485688171479</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>126.1615929388808</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24649,7 +24649,7 @@
         <v>124.97038729899</v>
       </c>
       <c r="S28" t="n">
-        <v>200.4621317806151</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T28" t="n">
         <v>227.6757534850358</v>
@@ -24658,13 +24658,13 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V28" t="n">
-        <v>202.6542319590386</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>237.0395869718016</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>176.2262440242478</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,10 +24677,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>333.2504302986912</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>315.7894804062182</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24728,16 +24728,16 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S29" t="n">
-        <v>162.2268517962913</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T29" t="n">
-        <v>172.9961344051792</v>
+        <v>178.8945570398622</v>
       </c>
       <c r="U29" t="n">
         <v>201.8509784240218</v>
       </c>
       <c r="V29" t="n">
-        <v>278.2688471053455</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24810,22 +24810,22 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T30" t="n">
-        <v>199.8611009721718</v>
+        <v>150.3776896073824</v>
       </c>
       <c r="U30" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V30" t="n">
-        <v>183.3171757846359</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>202.2115717961302</v>
+        <v>208.1099944308131</v>
       </c>
       <c r="X30" t="n">
         <v>156.2895738386881</v>
       </c>
       <c r="Y30" t="n">
-        <v>162.0977070471979</v>
+        <v>156.1992844125149</v>
       </c>
     </row>
     <row r="31">
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>117.7634097338384</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24856,13 +24856,13 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I31" t="n">
-        <v>153.551289182031</v>
+        <v>104.0678778172416</v>
       </c>
       <c r="J31" t="n">
         <v>88.89425643449839</v>
       </c>
       <c r="K31" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24880,16 +24880,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>58.41995280377493</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R31" t="n">
-        <v>124.97038729899</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S31" t="n">
-        <v>222.9160118599466</v>
+        <v>215.3943824263271</v>
       </c>
       <c r="T31" t="n">
-        <v>227.6757534850358</v>
+        <v>178.1923421202464</v>
       </c>
       <c r="U31" t="n">
         <v>286.3155846423218</v>
@@ -24898,13 +24898,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>237.0395869718016</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>169.1012419873054</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24926,7 +24926,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>357.392634376922</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>365.6785371625301</v>
@@ -24935,7 +24935,7 @@
         <v>288.5495355295114</v>
       </c>
       <c r="I32" t="n">
-        <v>205.0481221176458</v>
+        <v>155.5647107528564</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,13 +24962,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>97.44029295517282</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S32" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T32" t="n">
-        <v>222.4795457699687</v>
+        <v>178.8945570398622</v>
       </c>
       <c r="U32" t="n">
         <v>251.3343897888113</v>
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>117.0497722850779</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>129.1235102582093</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25041,22 +25041,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.99743253559016</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S33" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T33" t="n">
-        <v>199.8611009721718</v>
+        <v>150.3776896073824</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9364262421938</v>
+        <v>182.3514375120873</v>
       </c>
       <c r="V33" t="n">
         <v>183.3171757846359</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>202.2115717961302</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25090,7 +25090,7 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H34" t="n">
-        <v>139.2118040185457</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I34" t="n">
         <v>153.551289182031</v>
@@ -25120,25 +25120,25 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R34" t="n">
-        <v>124.97038729899</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S34" t="n">
         <v>222.9160118599466</v>
       </c>
       <c r="T34" t="n">
-        <v>178.1923421202464</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3155846423218</v>
+        <v>236.8321732775324</v>
       </c>
       <c r="V34" t="n">
         <v>202.6542319590386</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>264.0691182572594</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>176.2262440242478</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25154,7 +25154,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>315.7894804062182</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,10 +25166,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>365.6785371625301</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H35" t="n">
-        <v>294.4479581641943</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I35" t="n">
         <v>205.0481221176458</v>
@@ -25199,10 +25199,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>141.0252816852793</v>
+        <v>91.54187032048991</v>
       </c>
       <c r="S35" t="n">
-        <v>156.3284291616084</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T35" t="n">
         <v>222.4795457699687</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>326.1461119483625</v>
       </c>
       <c r="Y35" t="n">
         <v>336.7545272912642</v>
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>117.0497722850779</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>123.2250876235263</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>95.48084390037957</v>
+        <v>51.89585517027307</v>
       </c>
       <c r="S36" t="n">
-        <v>170.2839726213331</v>
+        <v>120.8005612565437</v>
       </c>
       <c r="T36" t="n">
-        <v>199.8611009721718</v>
+        <v>150.3776896073824</v>
       </c>
       <c r="U36" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>183.3171757846359</v>
       </c>
       <c r="W36" t="n">
-        <v>208.1099944308131</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>156.1992844125149</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>157.3781001026058</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>117.7634097338384</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>99.13206165342295</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25354,16 +25354,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>58.41995280377493</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R37" t="n">
-        <v>124.97038729899</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S37" t="n">
-        <v>173.4326004951572</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T37" t="n">
-        <v>178.1923421202464</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U37" t="n">
         <v>286.3155846423218</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>237.0395869718016</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,13 +25391,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>321.6879030409011</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>305.1996302558936</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>332.4469587074724</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25406,7 +25406,7 @@
         <v>415.1619485273195</v>
       </c>
       <c r="H38" t="n">
-        <v>338.0329468943008</v>
+        <v>288.5495355295114</v>
       </c>
       <c r="I38" t="n">
         <v>205.0481221176458</v>
@@ -25445,19 +25445,19 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U38" t="n">
-        <v>207.7494010587048</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>299.7575573526236</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>320.2476893136796</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>336.7545272912642</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25521,7 +25521,7 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T39" t="n">
-        <v>199.8611009721718</v>
+        <v>150.3776896073824</v>
       </c>
       <c r="U39" t="n">
         <v>176.4530148774044</v>
@@ -25530,10 +25530,10 @@
         <v>183.3171757846359</v>
       </c>
       <c r="W39" t="n">
-        <v>202.2115717961302</v>
+        <v>208.1099944308131</v>
       </c>
       <c r="X39" t="n">
-        <v>162.187996473371</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>122.9671679435997</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.9278262653587</v>
@@ -25567,10 +25567,10 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I40" t="n">
-        <v>153.551289182031</v>
+        <v>104.0678778172416</v>
       </c>
       <c r="J40" t="n">
-        <v>88.89425643449839</v>
+        <v>66.44037635516686</v>
       </c>
       <c r="K40" t="n">
         <v>14.93225064571201</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.39042151831705</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R40" t="n">
         <v>174.4537986637794</v>
@@ -25600,10 +25600,10 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T40" t="n">
-        <v>227.6757534850358</v>
+        <v>178.1923421202464</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3155846423218</v>
+        <v>236.8321732775324</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25612,10 +25612,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>176.2262440242478</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>169.1012419873054</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,16 +25625,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>333.2504302986912</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>315.7894804062182</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>311.0980528905765</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>332.4469587074724</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,7 +25643,7 @@
         <v>415.1619485273195</v>
       </c>
       <c r="H41" t="n">
-        <v>338.0329468943008</v>
+        <v>288.5495355295114</v>
       </c>
       <c r="I41" t="n">
         <v>205.0481221176458</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.99743253559016</v>
+        <v>51.89585517027307</v>
       </c>
       <c r="S42" t="n">
         <v>170.2839726213331</v>
@@ -25761,13 +25761,13 @@
         <v>150.3776896073824</v>
       </c>
       <c r="U42" t="n">
-        <v>176.4530148774044</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V42" t="n">
-        <v>189.2155984193188</v>
+        <v>183.3171757846359</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>202.2115717961302</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25789,7 +25789,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>126.1615929388808</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25831,16 +25831,16 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R43" t="n">
-        <v>124.97038729899</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S43" t="n">
-        <v>200.4621317806151</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T43" t="n">
-        <v>178.1923421202464</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3155846423218</v>
+        <v>236.8321732775324</v>
       </c>
       <c r="V43" t="n">
         <v>202.6542319590386</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>176.2262440242478</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>379113.5331090766</v>
+        <v>379113.5331090765</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>379113.5331090767</v>
+        <v>379113.5331090765</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>379113.5331090765</v>
+        <v>379113.5331090766</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>379113.5331090765</v>
+        <v>379113.5331090766</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>379113.5331090764</v>
+        <v>379113.5331090766</v>
       </c>
     </row>
     <row r="15">
@@ -26314,10 +26314,10 @@
         <v>80630.55414858479</v>
       </c>
       <c r="C2" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="D2" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="E2" t="n">
         <v>82279.54400800072</v>
@@ -26332,25 +26332,25 @@
         <v>92603.29247978373</v>
       </c>
       <c r="I2" t="n">
-        <v>92603.29247978372</v>
+        <v>92603.29247978376</v>
       </c>
       <c r="J2" t="n">
         <v>92603.29247978372</v>
       </c>
       <c r="K2" t="n">
-        <v>92603.29247978373</v>
+        <v>92603.29247978378</v>
       </c>
       <c r="L2" t="n">
         <v>92603.29247978373</v>
       </c>
       <c r="M2" t="n">
-        <v>92603.29247978373</v>
+        <v>92603.29247978372</v>
       </c>
       <c r="N2" t="n">
         <v>92603.29247978375</v>
       </c>
       <c r="O2" t="n">
-        <v>92603.29247978372</v>
+        <v>92603.29247978373</v>
       </c>
       <c r="P2" t="n">
         <v>82279.54400800072</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37564.41345369519</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="C4" t="n">
-        <v>37564.41345369519</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="D4" t="n">
-        <v>37564.41345369519</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="E4" t="n">
-        <v>34594.37497576843</v>
+        <v>34652.55823770496</v>
       </c>
       <c r="F4" t="n">
-        <v>34594.37497576843</v>
+        <v>34652.55823770496</v>
       </c>
       <c r="G4" t="n">
-        <v>34594.37497576843</v>
+        <v>34652.55823770496</v>
       </c>
       <c r="H4" t="n">
-        <v>39543.82406759867</v>
+        <v>39610.26079940193</v>
       </c>
       <c r="I4" t="n">
-        <v>39543.82406759867</v>
+        <v>39610.26079940193</v>
       </c>
       <c r="J4" t="n">
-        <v>39543.82406759867</v>
+        <v>39610.26079940193</v>
       </c>
       <c r="K4" t="n">
-        <v>39543.82406759867</v>
+        <v>39610.26079940193</v>
       </c>
       <c r="L4" t="n">
-        <v>39543.82406759867</v>
+        <v>39610.26079940193</v>
       </c>
       <c r="M4" t="n">
-        <v>39543.82406759867</v>
+        <v>39610.26079940193</v>
       </c>
       <c r="N4" t="n">
-        <v>39543.82406759867</v>
+        <v>39610.26079940193</v>
       </c>
       <c r="O4" t="n">
-        <v>39543.82406759867</v>
+        <v>39610.26079940193</v>
       </c>
       <c r="P4" t="n">
-        <v>34594.37497576843</v>
+        <v>34652.55823770496</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9438.540694889605</v>
+        <v>9375.362212578555</v>
       </c>
       <c r="C6" t="n">
-        <v>9438.540694889605</v>
+        <v>9375.36221257854</v>
       </c>
       <c r="D6" t="n">
-        <v>9438.540694889605</v>
+        <v>9375.36221257854</v>
       </c>
       <c r="E6" t="n">
-        <v>18785.51962302792</v>
+        <v>18727.33636109139</v>
       </c>
       <c r="F6" t="n">
-        <v>46921.70554855536</v>
+        <v>46863.52228661883</v>
       </c>
       <c r="G6" t="n">
-        <v>46921.70554855536</v>
+        <v>46863.52228661883</v>
       </c>
       <c r="H6" t="n">
-        <v>35936.34378060647</v>
+        <v>35869.90704880321</v>
       </c>
       <c r="I6" t="n">
-        <v>49287.41351752893</v>
+        <v>49220.9767857257</v>
       </c>
       <c r="J6" t="n">
-        <v>49287.41351752893</v>
+        <v>49220.97678572566</v>
       </c>
       <c r="K6" t="n">
-        <v>49287.41351752894</v>
+        <v>49220.97678572572</v>
       </c>
       <c r="L6" t="n">
-        <v>49287.41351752894</v>
+        <v>49220.97678572568</v>
       </c>
       <c r="M6" t="n">
-        <v>49287.41351752893</v>
+        <v>49220.97678572567</v>
       </c>
       <c r="N6" t="n">
-        <v>49287.41351752896</v>
+        <v>49220.97678572569</v>
       </c>
       <c r="O6" t="n">
-        <v>49287.41351752893</v>
+        <v>49220.97678572567</v>
       </c>
       <c r="P6" t="n">
-        <v>46921.70554855536</v>
+        <v>46863.52228661883</v>
       </c>
     </row>
   </sheetData>
@@ -36124,19 +36124,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>47.4840816126767</v>
       </c>
       <c r="M20" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N20" t="n">
-        <v>47.4840816126767</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="O20" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="P20" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>6.370323552522133</v>
       </c>
       <c r="K21" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,13 +36209,13 @@
         <v>49.4834113647894</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="O21" t="n">
-        <v>41.11375806015457</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="P21" t="n">
-        <v>49.4834113647894</v>
+        <v>41.11375806015459</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36361,22 +36361,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N23" t="n">
+        <v>47.4840816126767</v>
+      </c>
+      <c r="O23" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="O23" t="n">
-        <v>42.27115401925186</v>
-      </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="Q23" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="M24" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N24" t="n">
-        <v>41.11375806015457</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="O24" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>47.4840816126767</v>
       </c>
       <c r="Q24" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,22 +36598,22 @@
         <v>49.4834113647894</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>42.27115401925189</v>
+      </c>
+      <c r="O26" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="M26" t="n">
-        <v>47.4840816126767</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>49.4834113647894</v>
       </c>
       <c r="M27" t="n">
-        <v>41.11375806015457</v>
+        <v>47.4840816126767</v>
       </c>
       <c r="N27" t="n">
         <v>49.4834113647894</v>
@@ -36832,13 +36832,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="L29" t="n">
-        <v>42.27115401925189</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>49.4834113647894</v>
@@ -36847,10 +36847,10 @@
         <v>49.4834113647894</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>47.4840816126767</v>
       </c>
       <c r="Q29" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>49.4834113647894</v>
@@ -36920,16 +36920,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="O30" t="n">
-        <v>41.11375806015457</v>
-      </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="Q30" t="n">
-        <v>49.4834113647894</v>
+        <v>47.4840816126767</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,25 +37069,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N32" t="n">
-        <v>47.4840816126767</v>
+        <v>42.27115401925189</v>
       </c>
       <c r="O32" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="L33" t="n">
+        <v>47.4840816126767</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="N33" t="n">
-        <v>41.11375806015459</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>6.370323552522133</v>
       </c>
       <c r="K36" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>49.4834113647894</v>
+        <v>41.11375806015457</v>
       </c>
       <c r="M36" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N36" t="n">
-        <v>41.11375806015459</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37780,19 +37780,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>42.27115401925189</v>
+      </c>
+      <c r="O41" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="N41" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="O41" t="n">
-        <v>42.27115401925189</v>
       </c>
       <c r="P41" t="n">
         <v>49.4834113647894</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N42" t="n">
-        <v>47.4840816126767</v>
+        <v>41.11375806015459</v>
       </c>
       <c r="O42" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
